--- a/caracteristique.xlsx
+++ b/caracteristique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB682BF-FE40-4A52-87AA-8DAAE802CC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7657CD62-D5E9-42F7-84D7-A1E5C856E96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Force</t>
   </si>
@@ -122,94 +122,7 @@
     <t>Statistiques</t>
   </si>
   <si>
-    <t>Objet</t>
-  </si>
-  <si>
-    <t>fer à souder</t>
-  </si>
-  <si>
-    <t>Poid (kg)</t>
-  </si>
-  <si>
-    <t>Valeur (en crédit)</t>
-  </si>
-  <si>
-    <t>Equipement</t>
-  </si>
-  <si>
-    <t>pistolet 9mm</t>
-  </si>
-  <si>
-    <t>Range (ft)</t>
-  </si>
-  <si>
-    <t>Hit</t>
-  </si>
-  <si>
     <t>Spécialisation</t>
-  </si>
-  <si>
-    <t>Armes</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>2d4</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Une arme de point vous permetant de tirer 1 fois par tour pendant 6 tours, au 6eme tour une action est requise pour recharger. Lors d'un critique vous rajoute 1d4 de dégat.</t>
-  </si>
-  <si>
-    <t>Balles de 9mm</t>
-  </si>
-  <si>
-    <t>Quantité</t>
-  </si>
-  <si>
-    <t>poid unitaire (kg)</t>
-  </si>
-  <si>
-    <t>Prix unitaire (en crédit)</t>
-  </si>
-  <si>
-    <t>kanife</t>
-  </si>
-  <si>
-    <t>1d6</t>
-  </si>
-  <si>
-    <t>un kanife quoi serieux. Si critique double les dégats,</t>
-  </si>
-  <si>
-    <t>poings</t>
-  </si>
-  <si>
-    <t>1d4</t>
-  </si>
-  <si>
-    <t>hei ya kunt watarya saying about ma mom. En cas de critique rajoute 1d4</t>
-  </si>
-  <si>
-    <t>Armor class</t>
-  </si>
-  <si>
-    <t>effet(optionel)</t>
-  </si>
-  <si>
-    <t>Habit de travailleur</t>
-  </si>
-  <si>
-    <t>vous rend completement invisible parmis la plebe mais dé que vous allez dans un quartier riche vous etes instantanément fliqué</t>
-  </si>
-  <si>
-    <t>habit de travailleur dévoué à son entreprise et prenant à cœur les valeurs de l'entreprise et de l'entraide, remerciez vos patrons de vous l'avoir offert</t>
-  </si>
-  <si>
-    <t>Crédit</t>
   </si>
 </sst>
 </file>
@@ -245,29 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -302,58 +200,12 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{89BD1663-629A-40C4-BB4E-54F05DB62B98}" name="Competence"/>
     <tableColumn id="2" xr3:uid="{085DAF56-EF2D-4B1A-9432-3F474B6A94BC}" name="Modificateur"/>
-    <tableColumn id="3" xr3:uid="{13560C0E-B808-47FF-A79F-341C8F6B3C80}" name="Bonus" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{13560C0E-B808-47FF-A79F-341C8F6B3C80}" name="Bonus" dataDxfId="0">
       <calculatedColumnFormula>Tableau2[[#This Row],[Spécialisation]]*2+C3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F5847039-93F4-4463-AC94-EE4A9545C770}" name="Spécialisation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FBFDB5C6-B56E-4825-A40C-2ED6D68AE07F}" name="Tableau3" displayName="Tableau3" ref="H1:M13" totalsRowShown="0">
-  <autoFilter ref="H1:M13" xr:uid="{FBFDB5C6-B56E-4825-A40C-2ED6D68AE07F}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2E61CDF0-8050-47AE-A3C7-9AB27B8011E3}" name="Objet"/>
-    <tableColumn id="2" xr3:uid="{D237C7AC-DCE8-47CF-87CE-05AAD60EB287}" name="Valeur (en crédit)" dataDxfId="3">
-      <calculatedColumnFormula>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{30F76DC0-9034-4953-A9DA-5551EA4AE025}" name="Poid (kg)" dataDxfId="2">
-      <calculatedColumnFormula>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{54E3D62F-D77F-4AB3-926C-BA0F6C626885}" name="poid unitaire (kg)"/>
-    <tableColumn id="5" xr3:uid="{F721F364-4E99-4FE6-A141-C27A2C69D980}" name="Quantité"/>
-    <tableColumn id="6" xr3:uid="{F576C1A2-956C-405C-8CBD-BB637B7D1210}" name="Prix unitaire (en crédit)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D7C1B802-A46B-4745-B044-CD82F4352BA5}" name="Tableau4" displayName="Tableau4" ref="N1:R4" totalsRowShown="0">
-  <autoFilter ref="N1:R4" xr:uid="{D7C1B802-A46B-4745-B044-CD82F4352BA5}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DCF86FE9-9C23-4D02-9CDA-DF220201CC5D}" name="Armes"/>
-    <tableColumn id="2" xr3:uid="{ACFE718D-7442-4CA2-9716-9A35C2D84C41}" name="Range (ft)"/>
-    <tableColumn id="3" xr3:uid="{92F190B5-4D0F-4430-A9EB-C029BA2ABCB6}" name="Hit"/>
-    <tableColumn id="4" xr3:uid="{673EB653-78A3-44E1-9E1B-7F3369F4EED8}" name="Damage"/>
-    <tableColumn id="5" xr3:uid="{699C8757-0E90-4991-A110-945643A02473}" name="description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2455685-722B-4008-B161-44B353559A96}" name="Tableau5" displayName="Tableau5" ref="S1:V2" totalsRowShown="0">
-  <autoFilter ref="S1:V2" xr:uid="{C2455685-722B-4008-B161-44B353559A96}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A4C1B411-9916-44FD-AACB-FF5503E38514}" name="Equipement"/>
-    <tableColumn id="2" xr3:uid="{BE47D5EB-BC84-48DE-A740-6EEF4C78E6C3}" name="Armor class"/>
-    <tableColumn id="3" xr3:uid="{2A8E3494-7DC0-44E0-9A5A-118947B824E1}" name="effet(optionel)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{EA2D1287-A12E-4A3F-A376-F5A78BB3DE5E}" name="description" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -620,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +506,7 @@
     <col min="24" max="24" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -674,55 +526,10 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -739,62 +546,14 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <f>Tableau2[[#This Row],[Spécialisation]]*2+C3</f>
+        <f>Tableau2[[#This Row],[Spécialisation]]*2+C5</f>
         <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>0.1</v>
-      </c>
-      <c r="L2">
-        <v>60</v>
-      </c>
-      <c r="M2">
-        <v>0.5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2">
-        <v>150</v>
-      </c>
-      <c r="P2">
-        <f>C3</f>
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2">
-        <v>10</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -811,51 +570,14 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <f>Tableau2[[#This Row],[Spécialisation]]*2+C4</f>
-        <v>2</v>
+        <f>Tableau2[[#This Row],[Spécialisation]]*2+C5</f>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="str">
-        <f>N2</f>
-        <v>pistolet 9mm</v>
-      </c>
-      <c r="I3" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>35</v>
-      </c>
-      <c r="J3" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>1.5</v>
-      </c>
-      <c r="K3">
-        <v>1.5</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <f>C2</f>
-        <v>2</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -878,45 +600,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="str">
-        <f>N3</f>
-        <v>kanife</v>
-      </c>
-      <c r="I4" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>0.5</v>
-      </c>
-      <c r="K4">
-        <v>0.5</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <f>C2</f>
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -939,29 +624,8 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="str">
-        <f>S2</f>
-        <v>Habit de travailleur</v>
-      </c>
-      <c r="I5" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>5</v>
-      </c>
-      <c r="J5" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>0.8</v>
-      </c>
-      <c r="K5">
-        <v>0.8</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -984,28 +648,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>25</v>
-      </c>
-      <c r="J6">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1028,28 +672,8 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>100</v>
-      </c>
-      <c r="J7" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -1063,16 +687,8 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -1086,16 +702,10 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -1109,16 +719,10 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -1132,16 +736,10 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -1155,16 +753,10 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="I12" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -1178,16 +770,10 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="I13" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>17</v>
       </c>
@@ -1217,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>16</v>
       </c>
@@ -1265,12 +851,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/caracteristique.xlsx
+++ b/caracteristique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7657CD62-D5E9-42F7-84D7-A1E5C856E96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA0CDB7-41EA-4B89-B43F-82258E606B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +505,7 @@
     <col min="24" max="24" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -529,7 +528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -553,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -577,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -601,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -625,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -649,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -673,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -688,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -702,10 +701,8 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -719,10 +716,8 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -736,10 +731,8 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -753,10 +746,8 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -770,10 +761,8 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -788,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>17</v>
       </c>
@@ -803,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>16</v>
       </c>

--- a/caracteristique.xlsx
+++ b/caracteristique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\fiche-de-personnage-interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BC49E-9706-421B-8DB7-D5E016E61F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A6750-B613-4ACD-85C4-1E27CAE58391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,10 +752,10 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>0</v>
